--- a/Bin_data/Virginia/Virginia38.xlsx
+++ b/Bin_data/Virginia/Virginia38.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6149,6 +6149,176 @@
         <v>0.14076135276</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0.09969925296</v>
+      </c>
+      <c r="C35">
+        <v>0.09267189804000001</v>
+      </c>
+      <c r="D35">
+        <v>0.1097056452</v>
+      </c>
+      <c r="E35">
+        <v>0.09533776884</v>
+      </c>
+      <c r="F35">
+        <v>0.01992814488</v>
+      </c>
+      <c r="G35">
+        <v>0.06180416784000001</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.07266237744000001</v>
+      </c>
+      <c r="J35">
+        <v>0.0110714682</v>
+      </c>
+      <c r="K35">
+        <v>0.02167830372</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0.02619313488</v>
+      </c>
+      <c r="N35">
+        <v>0.01965386832</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0.02471846964</v>
+      </c>
+      <c r="Q35">
+        <v>0.01332149856</v>
+      </c>
+      <c r="R35">
+        <v>0.06371381424</v>
+      </c>
+      <c r="S35">
+        <v>0.0067429548</v>
+      </c>
+      <c r="T35">
+        <v>0.00644583108</v>
+      </c>
+      <c r="U35">
+        <v>0.00773146788</v>
+      </c>
+      <c r="V35">
+        <v>0.01354587648</v>
+      </c>
+      <c r="W35">
+        <v>0.01339092516</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0.01047368028</v>
+      </c>
+      <c r="Z35">
+        <v>0.01189557024</v>
+      </c>
+      <c r="AA35">
+        <v>0.00962081184</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0.02428597788</v>
+      </c>
+      <c r="AD35">
+        <v>0.06092126064</v>
+      </c>
+      <c r="AE35">
+        <v>0.07510868315999999</v>
+      </c>
+      <c r="AF35">
+        <v>0.0562225458</v>
+      </c>
+      <c r="AG35">
+        <v>0.02281109136</v>
+      </c>
+      <c r="AH35">
+        <v>0.02302894152</v>
+      </c>
+      <c r="AI35">
+        <v>0.00804397056</v>
+      </c>
+      <c r="AJ35">
+        <v>0.01586002272</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0.00352853088</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0.03315515688</v>
+      </c>
+      <c r="AP35">
+        <v>0.09755344548</v>
+      </c>
+      <c r="AQ35">
+        <v>0.13933044564</v>
+      </c>
+      <c r="AR35">
+        <v>0.09588499428</v>
+      </c>
+      <c r="AS35">
+        <v>0.06409878612</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0.09131949</v>
+      </c>
+      <c r="AX35">
+        <v>0.09267090227999999</v>
+      </c>
+      <c r="AY35">
+        <v>0.180192453</v>
+      </c>
+      <c r="AZ35">
+        <v>0.154883553</v>
+      </c>
+      <c r="BA35">
+        <v>0.33899559396</v>
+      </c>
+      <c r="BB35">
+        <v>0.15849157872</v>
+      </c>
+      <c r="BC35">
+        <v>0.05219713068</v>
+      </c>
+      <c r="BD35">
+        <v>0.05118709812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
